--- a/html/resources/aoiConditions/train2Block18.xlsx
+++ b/html/resources/aoiConditions/train2Block18.xlsx
@@ -22,28 +22,28 @@
     <t>imageLoc</t>
   </si>
   <si>
-    <t>trainingaudio/22_kakoki1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/03_kikita3.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/12_pokika3.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/13_kopopi1.wav</t>
-  </si>
-  <si>
-    <t>pngimages/22_egg.png</t>
-  </si>
-  <si>
-    <t>pngimages/03_box.png</t>
-  </si>
-  <si>
-    <t>pngimages/12_pie.png</t>
-  </si>
-  <si>
-    <t>pngimages/13_toast.png</t>
+    <t>trainingaudio/02_pitito3.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/23_patoko1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/18_popata2.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/06_titoka3.wav</t>
+  </si>
+  <si>
+    <t>pngimages/02_pallet.png</t>
+  </si>
+  <si>
+    <t>pngimages/23_lemon.png</t>
+  </si>
+  <si>
+    <t>pngimages/18_donut.png</t>
+  </si>
+  <si>
+    <t>pngimages/06_tent.png</t>
   </si>
 </sst>
 </file>
